--- a/OfficialStatisticReport/ClassAndStudentInfo/ClassAndStudentInfo/Resources/班級學生概況2025.xlsx
+++ b/OfficialStatisticReport/ClassAndStudentInfo/ClassAndStudentInfo/Resources/班級學生概況2025.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bandi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\OfficialStatisticReport\OfficialStatisticReport\ClassAndStudentInfo\ClassAndStudentInfo\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733624A9-EDF6-4953-AC9B-50B296D59E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7班級學生概一" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'7班級學生概一'!$A$1:$V$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -266,11 +267,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -956,16 +957,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -989,15 +1077,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,89 +1094,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1766,9 +1767,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1806,9 +1807,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1843,7 +1844,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1878,7 +1879,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2051,18 +2052,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="45"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A11" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G7" sqref="G7:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="62.375" style="1" customWidth="1"/>
@@ -2070,26 +2071,26 @@
     <col min="23" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1">
+    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="23"/>
       <c r="O1" s="25"/>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="42" t="s">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="43"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="72"/>
     </row>
-    <row r="2" spans="1:22" ht="30" customHeight="1" thickBot="1">
+    <row r="2" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
@@ -2109,19 +2110,19 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="29"/>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="44" t="s">
+      <c r="Q2" s="66"/>
+      <c r="R2" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="45"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="74"/>
     </row>
-    <row r="3" spans="1:22" s="27" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="3" spans="1:22" s="27" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>39</v>
       </c>
@@ -2147,11 +2148,11 @@
       <c r="U3" s="28"/>
       <c r="V3" s="28"/>
     </row>
-    <row r="4" spans="1:22" ht="30" customHeight="1">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="16" t="s">
         <v>21</v>
       </c>
@@ -2179,9 +2180,9 @@
       <c r="U4" s="22"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+    <row r="5" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="21"/>
       <c r="D5" s="20"/>
       <c r="E5" s="19"/>
@@ -2205,8 +2206,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="47.25" customHeight="1">
-      <c r="A6" s="77" t="s">
+    <row r="6" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="60" t="s">
@@ -2215,87 +2216,87 @@
       <c r="C6" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="46" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="53" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="U6" s="54"/>
-      <c r="V6" s="55"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="81"/>
     </row>
-    <row r="7" spans="1:22" ht="49.5" customHeight="1">
-      <c r="A7" s="78"/>
+    <row r="7" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64"/>
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="68" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49" t="s">
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49" t="s">
+      <c r="M7" s="42"/>
+      <c r="N7" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49" t="s">
+      <c r="O7" s="42"/>
+      <c r="P7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="40" t="s">
+      <c r="Q7" s="42"/>
+      <c r="R7" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="51" t="s">
+      <c r="S7" s="70"/>
+      <c r="T7" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
     </row>
-    <row r="8" spans="1:22" ht="39" customHeight="1">
-      <c r="A8" s="79"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="75"/>
+    <row r="8" spans="1:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="65"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="15" t="s">
         <v>8</v>
       </c>
@@ -2339,12 +2340,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="30" customHeight="1">
-      <c r="A9" s="80" t="s">
+    <row r="9" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="13"/>
       <c r="E9" s="10">
         <f>SUM(E10:E24)</f>
@@ -2419,8 +2420,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="30" customHeight="1">
-      <c r="A10" s="81"/>
+    <row r="10" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="11"/>
@@ -2443,8 +2444,8 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:22" ht="30" customHeight="1">
-      <c r="A11" s="81"/>
+    <row r="11" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="11"/>
@@ -2467,8 +2468,8 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1">
-      <c r="A12" s="81"/>
+    <row r="12" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="11"/>
@@ -2491,8 +2492,8 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1">
-      <c r="A13" s="81"/>
+    <row r="13" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
@@ -2515,8 +2516,8 @@
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:22" ht="30" customHeight="1">
-      <c r="A14" s="81"/>
+    <row r="14" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="11"/>
@@ -2539,8 +2540,8 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:22" ht="30" customHeight="1">
-      <c r="A15" s="81"/>
+    <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="11"/>
@@ -2563,8 +2564,8 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="1:22" ht="30" customHeight="1">
-      <c r="A16" s="81"/>
+    <row r="16" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="11"/>
@@ -2587,8 +2588,8 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="1:22" ht="30" customHeight="1">
-      <c r="A17" s="81"/>
+    <row r="17" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="11"/>
@@ -2611,8 +2612,8 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
     </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1">
-      <c r="A18" s="81"/>
+    <row r="18" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="11"/>
@@ -2635,8 +2636,8 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
     </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1">
-      <c r="A19" s="81"/>
+    <row r="19" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="11"/>
@@ -2659,8 +2660,8 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
     </row>
-    <row r="20" spans="1:22" ht="30" customHeight="1">
-      <c r="A20" s="81"/>
+    <row r="20" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="11"/>
@@ -2683,8 +2684,8 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
     </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1">
-      <c r="A21" s="81"/>
+    <row r="21" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="11"/>
@@ -2707,8 +2708,8 @@
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
     </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1">
-      <c r="A22" s="81"/>
+    <row r="22" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="11"/>
@@ -2731,8 +2732,8 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
     </row>
-    <row r="23" spans="1:22" ht="30" customHeight="1">
-      <c r="A23" s="81"/>
+    <row r="23" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
@@ -2755,8 +2756,8 @@
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
     </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1">
-      <c r="A24" s="81"/>
+    <row r="24" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="11"/>
@@ -2779,12 +2780,12 @@
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
     </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A25" s="66" t="s">
+    <row r="25" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="6"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -2805,7 +2806,7 @@
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
     </row>
-    <row r="26" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -2813,33 +2814,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="63" t="s">
+    <row r="27" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
     </row>
-    <row r="28" spans="1:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -2853,7 +2854,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1">
+    <row r="29" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>30</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1">
+    <row r="30" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>33</v>
       </c>
@@ -2899,16 +2900,8 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T6:V6"/>
     <mergeCell ref="A27:V27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -2925,8 +2918,16 @@
     <mergeCell ref="I6:S6"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E6:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
